--- a/aTunes_Report_CR3.xlsx
+++ b/aTunes_Report_CR3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niranjan\Documents\EMSE - Software Maintenance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="456" windowWidth="19200" windowHeight="18240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Software system:</t>
   </si>
@@ -56,9 +51,6 @@
     <t>Process followed to implement the Change Request:</t>
   </si>
   <si>
-    <t>2. Test case #X failed.</t>
-  </si>
-  <si>
     <t>Additional information</t>
   </si>
   <si>
@@ -107,15 +99,6 @@
     <t>2. Modified method getValueAt(…) from PlayListTableModel class to return the file path for column "Path File".</t>
   </si>
   <si>
-    <t>Created following test cases
-1. A new column "Path File" is shown in English version.
-2. The same column should be shown as "Directorio" when Spanish version of software is run.
-3. Column shows complete file path for the song or media.</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>0 mins</t>
   </si>
   <si>
@@ -126,13 +109,45 @@
   </si>
   <si>
     <t>25 min</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>#1 =&gt; pass</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Test case #2 =&gt; pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created following test cases
+#1. A new column "Path File" is shown in English version.
+#2. The same column should be shown as "Directorio" when Spanish version of software is run.
+#3. Column shows complete file path for the song or media.
+#4. For #2 and #3, if full file path and full column name is not displayed, enlarge the column width and check the full file path and colunm name     </t>
+  </si>
+  <si>
+    <t>4. Test case #3 =&gt; pass</t>
+  </si>
+  <si>
+    <t>5. Test case #4 =&gt; fail. The column is not expandable. (could not fild a fix for this issue)</t>
+  </si>
+  <si>
+    <t>0 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +186,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,10 +220,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,8 +243,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,203 +528,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="66.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="76.69921875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.69921875" style="2"/>
+    <col min="1" max="1" width="66.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.5">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="105">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="B30" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="37" spans="1:2" ht="202.75">
+      <c r="A37" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>